--- a/position.xlsx
+++ b/position.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gombae/Documents/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3F6D47-BB45-724B-BEA1-17C7C0F7AE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE638028-B9BD-F449-A431-9D31A877DA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ticker" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="133">
   <si>
     <t>2022-04-21</t>
   </si>
@@ -445,6 +446,46 @@
   </si>
   <si>
     <t>2022-06-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>218420</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 미국S&amp;P에너지(합성)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한 인버스 옥수수 선물 ETN(H)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500058</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한 S&amp;P500 VIX S/T 선물 ETN C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신 인버스 아연선물 ETN(H)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신 인버스 알루미늄 선물 ETN(H)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +495,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -502,15 +543,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -863,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0227AC08-FF2A-5442-BE36-AE10F5ED8DF2}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -2425,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4758F4D2-842C-B340-A5AB-839768A9D55B}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2718,19 +2760,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -2740,37 +2782,37 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>241180</v>
+      <c r="A14" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>256440</v>
+        <v>241180</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
         <v>92</v>
@@ -2786,20 +2828,20 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
+      <c r="A16" s="2">
+        <v>256440</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2809,17 +2851,17 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2">
-        <v>269370</v>
+      <c r="A17" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
         <v>95</v>
@@ -2832,60 +2874,60 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="2">
+        <v>269370</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>39</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>49</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>99</v>
       </c>
-      <c r="G18" t="b">
+      <c r="G19" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>305540</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>309230</v>
+        <v>305540</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
         <v>92</v>
@@ -2901,20 +2943,20 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
+      <c r="A21" s="2">
+        <v>309230</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -2925,19 +2967,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
         <v>98</v>
@@ -2948,25 +2990,25 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2994,42 +3036,42 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
         <v>98</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="2">
-        <v>367770</v>
+      <c r="A26" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
         <v>98</v>
@@ -3039,17 +3081,17 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
+      <c r="A27" s="2">
+        <v>367770</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
         <v>95</v>
@@ -3063,13 +3105,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
@@ -3085,46 +3127,46 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
         <v>373530</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>108</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>102</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>92</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>94</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>99</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -3132,13 +3174,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
@@ -3154,17 +3196,17 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2">
-        <v>394670</v>
+      <c r="A32" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
         <v>95</v>
@@ -3177,23 +3219,23 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
-        <v>13</v>
+      <c r="A33" s="2">
+        <v>394670</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -3201,10 +3243,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
         <v>43</v>
@@ -3213,79 +3255,79 @@
         <v>39</v>
       </c>
       <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
         <v>95</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>98</v>
       </c>
-      <c r="G34" t="b">
+      <c r="G35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2">
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
         <v>500058</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>87</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>88</v>
-      </c>
-      <c r="D35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
+      <c r="A37" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -3293,13 +3335,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
         <v>91</v>
@@ -3316,37 +3358,152 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
+        <v>129</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
         <v>91</v>
       </c>
       <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
         <v>95</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F42" t="s">
         <v>98</v>
       </c>
-      <c r="G39" t="b">
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G39">
+  <conditionalFormatting sqref="G2:G44">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A36:A39 A2:A11 A16 A13 A18 A30:A31 A27:A28 A21:A25 A33:A34" numberStoredAsText="1"/>
+    <ignoredError sqref="A42:A44 A2:A11 A17 A14 A19 A31:A32 A28:A29 A34:A35 A22:A23 A25:A26 A40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/position.xlsx
+++ b/position.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gombae/Documents/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE638028-B9BD-F449-A431-9D31A877DA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD86417-ED2E-714D-9158-C09DC3A9B6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="ticker" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="132">
   <si>
     <t>2022-04-21</t>
   </si>
@@ -307,10 +306,6 @@
   </si>
   <si>
     <t>2022-06-08</t>
-  </si>
-  <si>
-    <t>신한 S&amp;P500 VIX S/T 선물 ETN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>US</t>
@@ -916,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
       </c>
       <c r="E1" t="s">
         <v>77</v>
@@ -1077,13 +1072,13 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
       </c>
       <c r="E1" t="s">
         <v>77</v>
@@ -1274,7 +1269,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1">
         <v>1719094</v>
@@ -1385,7 +1380,7 @@
         <v>77100</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1402,7 +1397,7 @@
         <v>40027</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1419,7 +1414,7 @@
         <v>14028</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1436,7 +1431,7 @@
         <v>78200</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1453,7 +1448,7 @@
         <v>128500</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1470,7 +1465,7 @@
         <v>79100</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1487,7 +1482,7 @@
         <v>378000</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1504,7 +1499,7 @@
         <v>14150</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1521,7 +1516,7 @@
         <v>86165</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1538,7 +1533,7 @@
         <v>80800</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1555,7 +1550,7 @@
         <v>86600</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1572,7 +1567,7 @@
         <v>14125</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1589,7 +1584,7 @@
         <v>10150</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1606,7 +1601,7 @@
         <v>17512</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1623,7 +1618,7 @@
         <v>84920</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1640,7 +1635,7 @@
         <v>17870</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1657,7 +1652,7 @@
         <v>20085</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1674,7 +1669,7 @@
         <v>14215</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1691,7 +1686,7 @@
         <v>77500</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1708,7 +1703,7 @@
         <v>346000</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1725,7 +1720,7 @@
         <v>39435</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1742,7 +1737,7 @@
         <v>13800</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1759,7 +1754,7 @@
         <v>12090</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1776,7 +1771,7 @@
         <v>8475</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1793,7 +1788,7 @@
         <v>3820</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1810,7 +1805,7 @@
         <v>119500</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1827,7 +1822,7 @@
         <v>11230</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1844,7 +1839,7 @@
         <v>76300</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1861,7 +1856,7 @@
         <v>5835</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1878,7 +1873,7 @@
         <v>3360</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1895,7 +1890,7 @@
         <v>12535</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1912,7 +1907,7 @@
         <v>70930</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1929,7 +1924,7 @@
         <v>12552</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1946,7 +1941,7 @@
         <v>11045</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1963,7 +1958,7 @@
         <v>13225</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1980,7 +1975,7 @@
         <v>4249</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1997,7 +1992,7 @@
         <v>16735</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2014,7 +2009,7 @@
         <v>14270</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2031,7 +2026,7 @@
         <v>11670</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2048,7 +2043,7 @@
         <v>4895</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2065,7 +2060,7 @@
         <v>5545</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2082,7 +2077,7 @@
         <v>102840</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2099,7 +2094,7 @@
         <v>12950</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2116,7 +2111,7 @@
         <v>16243</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2133,7 +2128,7 @@
         <v>9865</v>
       </c>
       <c r="E46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2150,7 +2145,7 @@
         <v>4770</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2167,7 +2162,7 @@
         <v>4450</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2184,7 +2179,7 @@
         <v>7910</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2201,7 +2196,7 @@
         <v>10390</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2218,7 +2213,7 @@
         <v>11715</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2235,7 +2230,7 @@
         <v>14115</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2252,7 +2247,7 @@
         <v>82580</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2269,7 +2264,7 @@
         <v>10130</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2286,7 +2281,7 @@
         <v>9900</v>
       </c>
       <c r="E55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2303,7 +2298,7 @@
         <v>14325</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2320,7 +2315,7 @@
         <v>10984</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2337,7 +2332,7 @@
         <v>14720</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2354,7 +2349,7 @@
         <v>6495</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2371,7 +2366,7 @@
         <v>11865</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2388,7 +2383,7 @@
         <v>9360</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2405,7 +2400,7 @@
         <v>7830</v>
       </c>
       <c r="E62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2422,7 +2417,7 @@
         <v>12580</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2439,7 +2434,7 @@
         <v>8550</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2456,7 +2451,7 @@
         <v>8560</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2467,10 +2462,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4758F4D2-842C-B340-A5AB-839768A9D55B}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2493,16 +2488,16 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
         <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2516,13 +2511,13 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -2539,13 +2534,13 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -2562,13 +2557,13 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -2588,10 +2583,10 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -2608,13 +2603,13 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -2634,10 +2629,10 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2657,10 +2652,10 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2680,10 +2675,10 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2703,10 +2698,10 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -2726,10 +2721,10 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2740,19 +2735,19 @@
         <v>200250</v>
       </c>
       <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
         <v>101</v>
       </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2760,22 +2755,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
         <v>123</v>
       </c>
-      <c r="B13" t="s">
-        <v>124</v>
-      </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2798,7 +2793,7 @@
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -2809,19 +2804,19 @@
         <v>241180</v>
       </c>
       <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
         <v>111</v>
       </c>
-      <c r="C15" t="s">
-        <v>112</v>
-      </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2832,19 +2827,19 @@
         <v>256440</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2864,10 +2859,10 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2878,19 +2873,19 @@
         <v>269370</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2913,7 +2908,7 @@
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -2924,19 +2919,19 @@
         <v>305540</v>
       </c>
       <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2947,19 +2942,19 @@
         <v>309230</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2982,7 +2977,7 @@
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -3002,10 +2997,10 @@
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -3022,13 +3017,13 @@
         <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
         <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -3048,10 +3043,10 @@
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -3071,10 +3066,10 @@
         <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -3085,19 +3080,19 @@
         <v>367770</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -3117,10 +3112,10 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -3140,10 +3135,10 @@
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -3154,19 +3149,19 @@
         <v>373530</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -3186,10 +3181,10 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -3209,10 +3204,10 @@
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -3223,19 +3218,19 @@
         <v>394670</v>
       </c>
       <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
         <v>109</v>
       </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -3255,10 +3250,10 @@
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -3278,53 +3273,53 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2">
-        <v>500058</v>
+      <c r="A36" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
         <v>87</v>
       </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" t="s">
-        <v>102</v>
-      </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
         <v>99</v>
@@ -3335,22 +3330,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" t="s">
         <v>128</v>
       </c>
+      <c r="B38" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -3358,22 +3353,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>130</v>
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -3381,22 +3376,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -3404,22 +3399,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -3427,22 +3422,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -3450,60 +3445,37 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
         <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G44">
+  <conditionalFormatting sqref="G2:G43">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A42:A44 A2:A11 A17 A14 A19 A31:A32 A28:A29 A34:A35 A22:A23 A25:A26 A40" numberStoredAsText="1"/>
+    <ignoredError sqref="A41:A43 A2:A11 A17 A14 A19 A31:A32 A28:A29 A34:A35 A22:A23 A25:A26 A39" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>